--- a/config/default/forms/contact/universal_client-edit.xlsx
+++ b/config/default/forms/contact/universal_client-edit.xlsx
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">choices!$A$1:$E$2055</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">choices!$A$1:$E$2055</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">choices!$A$1:$E$2055</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">choices!$A$1:$E$2055</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -273,7 +274,7 @@
     <t xml:space="preserve">patient_ageYears</t>
   </si>
   <si>
-    <t xml:space="preserve">Age (years)</t>
+    <t xml:space="preserve">Estimated Age (years)</t>
   </si>
   <si>
     <t xml:space="preserve">${patient_dobKnown} = '_1066_No_99DCT'</t>
@@ -7078,16 +7079,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -7193,25 +7185,25 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.4540816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.9081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="161.719387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.984693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="64.7959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="105.831632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="243.612244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.9081632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="80.8163265306122"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="44.9081632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="96.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="44.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="92.8724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.3367346938775"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="167.571428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.9642857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="109.612244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="252.433673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="46.5255102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="83.6938775510204"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.5255102040816"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="100.071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="46.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10845,10 +10837,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="44.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.984693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.4540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="46.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55514,9 +55506,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="44.9081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="44.9081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="46.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="46.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55551,7 +55543,7 @@
       </c>
       <c r="C2" s="37" t="n">
         <f aca="true">NOW()</f>
-        <v>44339.7204149025</v>
+        <v>44344.3842752687</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>2217</v>
